--- a/results/mp/tinybert/corona/confidence/168/desired-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/desired-0.35/avg_0.002_scores.xlsx
@@ -40,331 +40,331 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>warns</t>
+    <t>crude</t>
   </si>
   <si>
     <t>arrested</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
-    <t>kills</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>death</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>hell</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>disruption</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>shame</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>emergency</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>anxiety</t>
+    <t>sc</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>friend</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>sharing</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>safely</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>helpful</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>super</t>
+    <t>please</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>ready</t>
+    <t>increase</t>
   </si>
   <si>
     <t>security</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
+    <t>available</t>
+  </si>
+  <si>
     <t>$</t>
   </si>
   <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>grocery</t>
   </si>
   <si>
     <t>!</t>
   </si>
   <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>for</t>
   </si>
   <si>
-    <t>and</t>
+    <t>a</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,10 +730,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -791,13 +791,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -809,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -841,13 +841,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -891,13 +891,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M5">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -941,13 +941,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.773972602739726</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>226</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -959,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -991,13 +991,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1041,37 +1041,37 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1091,13 +1091,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.92</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1109,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1141,13 +1141,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.9090909090909091</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1159,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M10">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1191,7 +1191,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8666666666666667</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1209,31 +1209,31 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L11">
+        <v>44</v>
+      </c>
+      <c r="M11">
+        <v>44</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>2</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K11">
-        <v>0.96875</v>
-      </c>
-      <c r="L11">
-        <v>31</v>
-      </c>
-      <c r="M11">
-        <v>31</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1241,13 +1241,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8311688311688312</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="C12">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>128</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1259,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.9583333333333334</v>
+        <v>0.9375</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1291,13 +1291,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8181818181818182</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1309,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.9375</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1341,13 +1341,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8125</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1359,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.9230769230769231</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L14">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1391,13 +1391,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1409,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.9166666666666666</v>
+        <v>0.8974358974358975</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1441,13 +1441,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1459,19 +1459,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="K16">
-        <v>0.9</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L16">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1483,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1491,13 +1491,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7777777777777778</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1509,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.8888888888888888</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1541,13 +1541,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7142857142857143</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1559,10 +1559,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K18">
         <v>0.8888888888888888</v>
@@ -1591,13 +1591,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7058823529411765</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="K19">
         <v>0.8888888888888888</v>
       </c>
       <c r="L19">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="M19">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1641,13 +1641,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1659,19 +1659,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.8888888888888888</v>
+        <v>0.8661971830985915</v>
       </c>
       <c r="L20">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="M20">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1691,13 +1691,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6363636363636364</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1709,19 +1709,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.8888888888888888</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L21">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="M21">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1741,13 +1741,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5882352941176471</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1759,19 +1759,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.8823529411764706</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1791,7 +1791,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5416666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C23">
         <v>13</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.8823529411764706</v>
+        <v>0.8416666666666667</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1841,13 +1841,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5278969957081545</v>
+        <v>0.2933333333333333</v>
       </c>
       <c r="C24">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1859,19 +1859,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.875</v>
+        <v>0.8359375</v>
       </c>
       <c r="L24">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="M24">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1891,13 +1891,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5263157894736842</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>132</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1909,19 +1909,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>384</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.8620689655172413</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L25">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M25">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1941,49 +1941,49 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C26">
+        <v>36</v>
+      </c>
+      <c r="D26">
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>153</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26">
+        <v>0.8275862068965517</v>
+      </c>
+      <c r="L26">
+        <v>48</v>
+      </c>
+      <c r="M26">
+        <v>48</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>10</v>
-      </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L26">
-        <v>33</v>
-      </c>
-      <c r="M26">
-        <v>33</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1991,13 +1991,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2009,19 +2009,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>8</v>
+        <v>134</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>0.8461538461538461</v>
+        <v>0.8125</v>
       </c>
       <c r="L27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2041,7 +2041,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4482758620689655</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -2059,829 +2059,565 @@
         <v>0</v>
       </c>
       <c r="H28">
+        <v>239</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="L28">
+        <v>41</v>
+      </c>
+      <c r="M28">
+        <v>41</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K29">
+        <v>0.8</v>
+      </c>
+      <c r="L29">
+        <v>128</v>
+      </c>
+      <c r="M29">
+        <v>128</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K30">
+        <v>0.7830188679245284</v>
+      </c>
+      <c r="L30">
+        <v>83</v>
+      </c>
+      <c r="M30">
+        <v>83</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31">
+        <v>0.7826086956521739</v>
+      </c>
+      <c r="L31">
+        <v>18</v>
+      </c>
+      <c r="M31">
+        <v>18</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L32">
+        <v>28</v>
+      </c>
+      <c r="M32">
+        <v>28</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K33">
+        <v>0.7647058823529411</v>
+      </c>
+      <c r="L33">
+        <v>13</v>
+      </c>
+      <c r="M33">
+        <v>13</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34">
+        <v>0.76</v>
+      </c>
+      <c r="L34">
+        <v>38</v>
+      </c>
+      <c r="M34">
+        <v>38</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35">
+        <v>0.7368421052631579</v>
+      </c>
+      <c r="L35">
+        <v>14</v>
+      </c>
+      <c r="M35">
+        <v>14</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36">
+        <v>0.7232375979112271</v>
+      </c>
+      <c r="L36">
+        <v>277</v>
+      </c>
+      <c r="M36">
+        <v>277</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="L37">
+        <v>45</v>
+      </c>
+      <c r="M37">
+        <v>45</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K38">
+        <v>0.6914893617021277</v>
+      </c>
+      <c r="L38">
+        <v>65</v>
+      </c>
+      <c r="M38">
+        <v>65</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K39">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L39">
+        <v>19</v>
+      </c>
+      <c r="M39">
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K40">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L40">
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <v>19</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K41">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="L41">
+        <v>21</v>
+      </c>
+      <c r="M41">
+        <v>21</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42">
+        <v>0.6764705882352942</v>
+      </c>
+      <c r="L42">
+        <v>23</v>
+      </c>
+      <c r="M42">
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K43">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L43">
+        <v>22</v>
+      </c>
+      <c r="M43">
+        <v>22</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K44">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L44">
+        <v>32</v>
+      </c>
+      <c r="M44">
+        <v>32</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>16</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K28">
-        <v>0.84</v>
-      </c>
-      <c r="L28">
-        <v>21</v>
-      </c>
-      <c r="M28">
-        <v>21</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="C29">
-        <v>7</v>
-      </c>
-      <c r="D29">
-        <v>7</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>11</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K29">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L29">
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K45">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L45">
+        <v>18</v>
+      </c>
+      <c r="M45">
+        <v>18</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K46">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L46">
+        <v>16</v>
+      </c>
+      <c r="M46">
+        <v>16</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K47">
+        <v>0.65</v>
+      </c>
+      <c r="L47">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K48">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="L48">
+        <v>18</v>
+      </c>
+      <c r="M48">
+        <v>18</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>10</v>
-      </c>
-      <c r="M29">
-        <v>10</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30">
-        <v>0.3888888888888889</v>
-      </c>
-      <c r="C30">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>7</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>11</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="K30">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L30">
-        <v>20</v>
-      </c>
-      <c r="M30">
-        <v>20</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.3875</v>
-      </c>
-      <c r="C31">
-        <v>31</v>
-      </c>
-      <c r="D31">
-        <v>31</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>49</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L31">
-        <v>42</v>
-      </c>
-      <c r="M31">
-        <v>42</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>10</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>18</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K32">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L32">
-        <v>9</v>
-      </c>
-      <c r="M32">
-        <v>9</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>0.3255813953488372</v>
-      </c>
-      <c r="C33">
-        <v>28</v>
-      </c>
-      <c r="D33">
-        <v>28</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>58</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K33">
-        <v>0.8</v>
-      </c>
-      <c r="L33">
-        <v>20</v>
-      </c>
-      <c r="M33">
-        <v>20</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="A34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34">
-        <v>0.3181818181818182</v>
-      </c>
-      <c r="C34">
-        <v>7</v>
-      </c>
-      <c r="D34">
-        <v>7</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>15</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K34">
-        <v>0.7931034482758621</v>
-      </c>
-      <c r="L34">
-        <v>23</v>
-      </c>
-      <c r="M34">
-        <v>23</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35">
-        <v>0.2454545454545455</v>
-      </c>
-      <c r="C35">
-        <v>27</v>
-      </c>
-      <c r="D35">
-        <v>27</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>83</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K35">
-        <v>0.7894736842105263</v>
-      </c>
-      <c r="L35">
-        <v>15</v>
-      </c>
-      <c r="M35">
-        <v>15</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="A36" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36">
-        <v>0.2368421052631579</v>
-      </c>
-      <c r="C36">
-        <v>9</v>
-      </c>
-      <c r="D36">
-        <v>9</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>29</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K36">
-        <v>0.7878787878787878</v>
-      </c>
-      <c r="L36">
-        <v>26</v>
-      </c>
-      <c r="M36">
-        <v>26</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.225</v>
-      </c>
-      <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="D37">
-        <v>9</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>31</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K37">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L37">
-        <v>7</v>
-      </c>
-      <c r="M37">
-        <v>7</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.1739130434782609</v>
-      </c>
-      <c r="C38">
-        <v>8</v>
-      </c>
-      <c r="D38">
-        <v>8</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>38</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K38">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L38">
-        <v>7</v>
-      </c>
-      <c r="M38">
-        <v>7</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.1407407407407407</v>
-      </c>
-      <c r="C39">
-        <v>19</v>
-      </c>
-      <c r="D39">
-        <v>19</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>116</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39">
-        <v>0.7699530516431925</v>
-      </c>
-      <c r="L39">
-        <v>164</v>
-      </c>
-      <c r="M39">
-        <v>164</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K40">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L40">
-        <v>10</v>
-      </c>
-      <c r="M40">
-        <v>10</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K41">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L41">
-        <v>13</v>
-      </c>
-      <c r="M41">
-        <v>13</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42">
-        <v>0.7397260273972602</v>
-      </c>
-      <c r="L42">
-        <v>54</v>
-      </c>
-      <c r="M42">
-        <v>54</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K43">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L43">
-        <v>8</v>
-      </c>
-      <c r="M43">
-        <v>8</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K44">
-        <v>0.7</v>
-      </c>
-      <c r="L44">
-        <v>14</v>
-      </c>
-      <c r="M44">
-        <v>14</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K45">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L45">
-        <v>9</v>
-      </c>
-      <c r="M45">
-        <v>9</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K46">
-        <v>0.689922480620155</v>
-      </c>
-      <c r="L46">
-        <v>89</v>
-      </c>
-      <c r="M46">
-        <v>89</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K47">
-        <v>0.6739130434782609</v>
-      </c>
-      <c r="L47">
-        <v>62</v>
-      </c>
-      <c r="M47">
-        <v>62</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="J48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K48">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L48">
-        <v>96</v>
-      </c>
-      <c r="M48">
-        <v>96</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>48</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="K49">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="L49">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M49">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2893,21 +2629,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K50">
-        <v>0.6538461538461539</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2919,21 +2655,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K51">
-        <v>0.6428571428571429</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L51">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="M51">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2945,21 +2681,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K52">
-        <v>0.6363636363636364</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L52">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2971,21 +2707,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="K53">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="L53">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="M53">
-        <v>7</v>
+        <v>177</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2997,21 +2733,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>5</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K54">
-        <v>0.5714285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L54">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="M54">
-        <v>8</v>
+        <v>200</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3023,21 +2759,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>6</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="K55">
-        <v>0.5384615384615384</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L55">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M55">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3049,21 +2785,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="K56">
-        <v>0.5357142857142857</v>
+        <v>0.5523012552301255</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3075,21 +2811,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K57">
-        <v>0.5142857142857142</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L57">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M57">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3101,21 +2837,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="K58">
-        <v>0.5</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L58">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="M58">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3127,21 +2863,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="K59">
         <v>0.5</v>
       </c>
       <c r="L59">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M59">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3153,21 +2889,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K60">
-        <v>0.5</v>
+        <v>0.475</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3179,21 +2915,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="K61">
-        <v>0.4210526315789473</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L61">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M61">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3205,21 +2941,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="K62">
-        <v>0.375</v>
+        <v>0.4468085106382979</v>
       </c>
       <c r="L62">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M62">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3231,21 +2967,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="K63">
-        <v>0.3513513513513514</v>
+        <v>0.421875</v>
       </c>
       <c r="L63">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M63">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3257,21 +2993,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="K64">
-        <v>0.3043478260869565</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L64">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M64">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3283,21 +3019,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="K65">
-        <v>0.28125</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="L65">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M65">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3309,21 +3045,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="K66">
-        <v>0.1666666666666667</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L66">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3335,21 +3071,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="K67">
-        <v>0.02682926829268293</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="L67">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M67">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3361,21 +3097,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>399</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K68">
-        <v>0.0187793427230047</v>
+        <v>0.06787330316742081</v>
       </c>
       <c r="L68">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M68">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3387,21 +3123,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>418</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="K69">
-        <v>0.0173697270471464</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="L69">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M69">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -3413,21 +3149,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K70">
-        <v>0.01408450704225352</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="L70">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="M70">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3439,21 +3175,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>630</v>
+        <v>870</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K71">
-        <v>0.007543103448275862</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="L71">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3465,59 +3201,345 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>921</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="K72">
-        <v>0.007136485280999108</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L72">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="M72">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N72">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>1113</v>
+        <v>884</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K73">
+        <v>0.01619433198380567</v>
+      </c>
+      <c r="L73">
+        <v>16</v>
+      </c>
+      <c r="M73">
+        <v>17</v>
+      </c>
+      <c r="N73">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O73">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K74">
+        <v>0.01384730538922156</v>
+      </c>
+      <c r="L74">
+        <v>37</v>
+      </c>
+      <c r="M74">
+        <v>38</v>
+      </c>
+      <c r="N74">
+        <v>0.97</v>
+      </c>
+      <c r="O74">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K75">
+        <v>0.01226993865030675</v>
+      </c>
+      <c r="L75">
+        <v>30</v>
+      </c>
+      <c r="M75">
+        <v>30</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K76">
+        <v>0.01129234629861983</v>
+      </c>
+      <c r="L76">
+        <v>18</v>
+      </c>
+      <c r="M76">
+        <v>18</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K77">
+        <v>0.009098786828422877</v>
+      </c>
+      <c r="L77">
+        <v>21</v>
+      </c>
+      <c r="M77">
+        <v>22</v>
+      </c>
+      <c r="N77">
+        <v>0.95</v>
+      </c>
+      <c r="O77">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K78">
+        <v>0.008874357776739842</v>
+      </c>
+      <c r="L78">
+        <v>19</v>
+      </c>
+      <c r="M78">
+        <v>21</v>
+      </c>
+      <c r="N78">
+        <v>0.9</v>
+      </c>
+      <c r="O78">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K79">
+        <v>0.00833010461061604</v>
+      </c>
+      <c r="L79">
+        <v>43</v>
+      </c>
+      <c r="M79">
+        <v>46</v>
+      </c>
+      <c r="N79">
+        <v>0.93</v>
+      </c>
+      <c r="O79">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K80">
+        <v>0.007566204287515763</v>
+      </c>
+      <c r="L80">
+        <v>18</v>
+      </c>
+      <c r="M80">
+        <v>18</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K81">
+        <v>0.007410374524334067</v>
+      </c>
+      <c r="L81">
+        <v>37</v>
+      </c>
+      <c r="M81">
+        <v>40</v>
+      </c>
+      <c r="N81">
+        <v>0.93</v>
+      </c>
+      <c r="O81">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K82">
+        <v>0.007169287696577244</v>
+      </c>
+      <c r="L82">
+        <v>31</v>
+      </c>
+      <c r="M82">
+        <v>35</v>
+      </c>
+      <c r="N82">
+        <v>0.89</v>
+      </c>
+      <c r="O82">
+        <v>0.11</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K83">
+        <v>0.006024096385542169</v>
+      </c>
+      <c r="L83">
+        <v>13</v>
+      </c>
+      <c r="M83">
+        <v>13</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K73">
-        <v>0.005221932114882507</v>
-      </c>
-      <c r="L73">
-        <v>10</v>
-      </c>
-      <c r="M73">
-        <v>11</v>
-      </c>
-      <c r="N73">
-        <v>0.91</v>
-      </c>
-      <c r="O73">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P73" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q73">
-        <v>1905</v>
+      <c r="K84">
+        <v>0.005473277527366388</v>
+      </c>
+      <c r="L84">
+        <v>17</v>
+      </c>
+      <c r="M84">
+        <v>18</v>
+      </c>
+      <c r="N84">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O84">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>3089</v>
       </c>
     </row>
   </sheetData>
